--- a/Documentation/Export_Benefits.xlsx
+++ b/Documentation/Export_Benefits.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16120"/>
   </bookViews>
   <sheets>
-    <sheet name="Gesamt (Bereinigt)" sheetId="7" r:id="rId1"/>
-    <sheet name="Gesamt" sheetId="1" r:id="rId2"/>
+    <sheet name="Gemeinsamt (Bereinigt)" sheetId="7" r:id="rId1"/>
+    <sheet name="Gemeinsamt" sheetId="1" r:id="rId2"/>
     <sheet name="Ebsco" sheetId="2" r:id="rId3"/>
     <sheet name="ACM" sheetId="3" r:id="rId4"/>
     <sheet name="IEEE" sheetId="4" r:id="rId5"/>
@@ -3564,8 +3564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="C168" sqref="C168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -13503,8 +13503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T199"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="I101" sqref="I101"/>
+    <sheetView topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
